--- a/Resources/Testing Digits.xlsx
+++ b/Resources/Testing Digits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Krithik\Documents\University\Year 3\COMPSYS 302\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Krithik\Documents\GitHub\project-1-team_34\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C66DBB5-203C-472B-AB9A-DB5F4CBDF5D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B672DD-1440-44AE-9BAD-CF651901AE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{7AC02D64-E0B2-4D3D-9CCB-26951E253799}"/>
   </bookViews>
@@ -432,26 +432,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -460,6 +445,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,41 +513,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1958,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CB697A-93FE-461B-8DDD-57C31BB18E5E}">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1991,16 +1991,16 @@
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="S1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="P2">
@@ -2421,14 +2421,14 @@
     </row>
     <row r="14" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
       <c r="Q14" s="2">
         <v>0.1</v>
       </c>
@@ -2461,1029 +2461,1011 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39">
-        <v>0</v>
-      </c>
-      <c r="R18" s="39">
-        <v>1</v>
-      </c>
-      <c r="S18" s="39">
-        <v>2</v>
-      </c>
-      <c r="T18" s="39">
-        <v>3</v>
-      </c>
-      <c r="U18" s="39">
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21">
+        <v>0</v>
+      </c>
+      <c r="R18" s="21">
+        <v>1</v>
+      </c>
+      <c r="S18" s="21">
+        <v>2</v>
+      </c>
+      <c r="T18" s="21">
+        <v>3</v>
+      </c>
+      <c r="U18" s="21">
         <v>4</v>
       </c>
-      <c r="V18" s="39">
+      <c r="V18" s="21">
         <v>5</v>
       </c>
-      <c r="W18" s="39">
+      <c r="W18" s="21">
         <v>6</v>
       </c>
-      <c r="X18" s="39">
-        <v>7</v>
-      </c>
-      <c r="Y18" s="39">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="P19" s="40" t="s">
+      <c r="X18" s="21">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="P19" s="22" t="s">
         <v>2</v>
       </c>
       <c r="Q19" s="3">
-        <f>(Q14+Q13)/2</f>
+        <f t="shared" ref="Q19:Z19" si="0">(Q14+Q13)/2</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="R19" s="3">
-        <f>(R14+R13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="S19" s="3">
-        <f>(S14+S13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
       <c r="T19" s="3">
-        <f>(T14+T13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="U19" s="3">
-        <f>(U14+U13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="V19" s="3">
-        <f>(V14+V13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="W19" s="3">
-        <f>(W14+W13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="X19" s="3">
-        <f>(X14+X13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="Y19" s="3">
-        <f>(Y14+Y13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="Z19" s="3">
-        <f>(Z14+Z13)/2</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ20" s="18" t="s">
+    <row r="30" spans="1:26" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AK20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL20" s="18" t="s">
+      <c r="S30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AM20" s="18" t="s">
+      <c r="U30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AN20" s="18" t="s">
+      <c r="V30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AO20" s="18" t="s">
+      <c r="W30" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF21" s="37" t="s">
+    <row r="31" spans="1:26" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="N31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AG21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="8">
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
         <f>SUM(D34:L34)</f>
         <v>17</v>
       </c>
-      <c r="AI21" s="8">
-        <v>2</v>
-      </c>
-      <c r="AJ21" s="8">
-        <f>(200-AH21-AI21-AK21)</f>
+      <c r="Q31" s="6">
+        <v>2</v>
+      </c>
+      <c r="R31" s="6">
+        <f>(200-P31-Q31-S31)</f>
         <v>178</v>
       </c>
-      <c r="AK21" s="8">
-        <v>3</v>
-      </c>
-      <c r="AL21" s="8">
-        <f>ROUND(AK21/(AK21+AI21),2)</f>
+      <c r="S31" s="6">
+        <v>3</v>
+      </c>
+      <c r="T31" s="6">
+        <f>ROUND(S31/(S31+Q31),2)</f>
         <v>0.6</v>
       </c>
-      <c r="AM21" s="8">
-        <f>ROUND(AK21/(AK21+AH21),2)</f>
+      <c r="U31" s="6">
+        <f>ROUND(S31/(S31+P31),2)</f>
         <v>0.15</v>
       </c>
-      <c r="AN21" s="8">
-        <f>ROUND(2*(AM21*AL21)/(AM21+AL21),2)</f>
+      <c r="V31" s="6">
+        <f>ROUND(2*(U31*T31)/(U31+T31),2)</f>
         <v>0.24</v>
       </c>
-      <c r="AO21" s="12">
-        <f>ROUND((AK21+AJ21)/(AK21+AJ21+AI21+AH21),2)</f>
+      <c r="W31" s="8">
+        <f t="shared" ref="W31:W40" si="1">ROUND((S31+R31)/(S31+R31+Q31+P31),2)</f>
         <v>0.91</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="9">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="8">
+    <row r="32" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="7">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6">
         <f>SUM(C35,E35:K35)</f>
         <v>9</v>
       </c>
-      <c r="AI22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="8">
-        <f t="shared" ref="AJ22:AJ30" si="0">(200-AH22-AI22-AK22)</f>
+      <c r="Q32" s="6">
+        <v>1</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" ref="R32:R40" si="2">(200-P32-Q32-S32)</f>
         <v>179</v>
       </c>
-      <c r="AK22" s="8">
+      <c r="S32" s="6">
         <v>11</v>
       </c>
-      <c r="AL22" s="8">
-        <f t="shared" ref="AL22:AL30" si="1">ROUND(AK22/(AK22+AI22),2)</f>
+      <c r="T32" s="6">
+        <f t="shared" ref="T32:T40" si="3">ROUND(S32/(S32+Q32),2)</f>
         <v>0.92</v>
       </c>
-      <c r="AM22" s="8">
-        <f t="shared" ref="AM22:AM29" si="2">ROUND(AK22/(AK22+AH22),2)</f>
+      <c r="U32" s="6">
+        <f t="shared" ref="U32:U39" si="4">ROUND(S32/(S32+P32),2)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AN22" s="8">
-        <f t="shared" ref="AN22:AN29" si="3">ROUND(2*(AM22*AL22)/(AM22+AL22),2)</f>
+      <c r="V32" s="6">
+        <f t="shared" ref="V32:V39" si="5">ROUND(2*(U32*T32)/(U32+T32),2)</f>
         <v>0.69</v>
       </c>
-      <c r="AO22" s="12">
-        <f>ROUND((AK22+AJ22)/(AK22+AJ22+AI22+AH22),2)</f>
+      <c r="W32" s="8">
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="9">
-        <v>2</v>
-      </c>
-      <c r="AH23" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="8">
+    <row r="33" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2</v>
+      </c>
+      <c r="F33" s="18">
+        <v>3</v>
+      </c>
+      <c r="G33" s="18">
+        <v>4</v>
+      </c>
+      <c r="H33" s="18">
+        <v>5</v>
+      </c>
+      <c r="I33" s="18">
+        <v>6</v>
+      </c>
+      <c r="J33" s="18">
+        <v>7</v>
+      </c>
+      <c r="K33" s="18">
+        <v>8</v>
+      </c>
+      <c r="L33" s="18">
+        <v>9</v>
+      </c>
+      <c r="N33" s="32"/>
+      <c r="O33" s="7">
+        <v>2</v>
+      </c>
+      <c r="P33" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="6">
         <v>14</v>
       </c>
-      <c r="AJ23" s="8">
-        <f t="shared" si="0"/>
+      <c r="R33" s="6">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="AK23" s="8">
+      <c r="S33" s="6">
         <v>19</v>
       </c>
-      <c r="AL23" s="8">
+      <c r="T33" s="6">
+        <f t="shared" si="3"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U33" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="V33" s="6">
+        <f t="shared" si="5"/>
+        <v>0.72</v>
+      </c>
+      <c r="W33" s="8">
         <f t="shared" si="1"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AM23" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="19">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>9</v>
+      </c>
+      <c r="F34" s="16">
+        <v>2</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>5</v>
+      </c>
+      <c r="N34" s="32"/>
+      <c r="O34" s="7">
+        <v>3</v>
+      </c>
+      <c r="P34" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>8</v>
+      </c>
+      <c r="R34" s="6">
         <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="AN23" s="8">
+        <v>172</v>
+      </c>
+      <c r="S34" s="6">
+        <v>14</v>
+      </c>
+      <c r="T34" s="6">
         <f t="shared" si="3"/>
-        <v>0.72</v>
-      </c>
-      <c r="AO23" s="12">
-        <f>ROUND((AK23+AJ23)/(AK23+AJ23+AI23+AH23),2)</f>
+        <v>0.64</v>
+      </c>
+      <c r="U34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="V34" s="6">
+        <f t="shared" si="5"/>
+        <v>0.67</v>
+      </c>
+      <c r="W34" s="8">
+        <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH24" s="8">
+    <row r="35" spans="1:23" ht="20.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="30"/>
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16">
+        <v>2</v>
+      </c>
+      <c r="D35" s="17">
+        <v>11</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
         <v>6</v>
       </c>
-      <c r="AI24" s="8">
-        <v>8</v>
-      </c>
-      <c r="AJ24" s="8">
-        <f t="shared" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="AK24" s="8">
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="N35" s="32"/>
+      <c r="O35" s="7">
+        <v>4</v>
+      </c>
+      <c r="P35" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>4</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="S35" s="6">
+        <v>16</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="V35" s="6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="W35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A36" s="30"/>
+      <c r="B36" s="19">
+        <v>2</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>19</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <v>1</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0</v>
+      </c>
+      <c r="N36" s="32"/>
+      <c r="O36" s="7">
+        <v>5</v>
+      </c>
+      <c r="P36" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>3</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="S36" s="6">
+        <v>9</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="W36" s="8">
+        <f t="shared" si="1"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A37" s="30"/>
+      <c r="B37" s="19">
+        <v>3</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17">
         <v>14</v>
       </c>
-      <c r="AL24" s="8">
+      <c r="G37" s="16">
+        <v>1</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>1</v>
+      </c>
+      <c r="L37" s="16">
+        <v>3</v>
+      </c>
+      <c r="N37" s="32"/>
+      <c r="O37" s="7">
+        <v>6</v>
+      </c>
+      <c r="P37" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>9</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="S37" s="6">
+        <v>7</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="U37" s="6">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="V37" s="6">
+        <f t="shared" si="5"/>
+        <v>0.39</v>
+      </c>
+      <c r="W37" s="8">
         <f t="shared" si="1"/>
-        <v>0.64</v>
-      </c>
-      <c r="AM24" s="8">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A38" s="30"/>
+      <c r="B38" s="19">
+        <v>4</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17">
+        <v>16</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0</v>
+      </c>
+      <c r="I38" s="16">
+        <v>3</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>1</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0</v>
+      </c>
+      <c r="N38" s="32"/>
+      <c r="O38" s="7">
+        <v>7</v>
+      </c>
+      <c r="P38" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>12</v>
+      </c>
+      <c r="R38" s="6">
         <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="S38" s="6">
+        <v>17</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.59</v>
+      </c>
+      <c r="U38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="V38" s="6">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="W38" s="8">
+        <f t="shared" si="1"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A39" s="30"/>
+      <c r="B39" s="19">
+        <v>5</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <v>2</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <v>9</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>2</v>
+      </c>
+      <c r="L39" s="16">
+        <v>7</v>
+      </c>
+      <c r="N39" s="32"/>
+      <c r="O39" s="7">
+        <v>8</v>
+      </c>
+      <c r="P39" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>12</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="S39" s="6">
+        <v>12</v>
+      </c>
+      <c r="T39" s="6">
         <f t="shared" si="3"/>
-        <v>0.67</v>
-      </c>
-      <c r="AO24" s="12">
-        <f>ROUND((AK24+AJ24)/(AK24+AJ24+AI24+AH24),2)</f>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U39" s="6">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="V39" s="6">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W39" s="8">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A40" s="30"/>
+      <c r="B40" s="19">
+        <v>6</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="16">
+        <v>2</v>
+      </c>
+      <c r="I40" s="17">
+        <v>7</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
         <v>4</v>
       </c>
-      <c r="AH25" s="8">
-        <v>4</v>
-      </c>
-      <c r="AI25" s="8">
-        <v>4</v>
-      </c>
-      <c r="AJ25" s="8">
-        <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
-      <c r="AK25" s="8">
-        <v>16</v>
-      </c>
-      <c r="AL25" s="8">
+      <c r="L40" s="16">
+        <v>6</v>
+      </c>
+      <c r="N40" s="32"/>
+      <c r="O40" s="7">
+        <v>9</v>
+      </c>
+      <c r="P40" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>24</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="S40" s="6">
+        <v>3</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="U40" s="6">
+        <f>ROUND(S40/(S40+P40),2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="V40" s="6">
+        <f>ROUND(2*(U40*T40)/(U40+T40),2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="W40" s="8">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AM25" s="8">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="AN25" s="8">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="AO25" s="12">
-        <f>ROUND((AK25+AJ25)/(AK25+AJ25+AI25+AH25),2)</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="9">
-        <v>5</v>
-      </c>
-      <c r="AH26" s="8">
-        <v>11</v>
-      </c>
-      <c r="AI26" s="8">
-        <v>3</v>
-      </c>
-      <c r="AJ26" s="8">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="AK26" s="8">
-        <v>9</v>
-      </c>
-      <c r="AL26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="AM26" s="8">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="AN26" s="8">
-        <f t="shared" si="3"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AO26" s="12">
-        <f>ROUND((AK26+AJ26)/(AK26+AJ26+AI26+AH26),2)</f>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="9">
-        <v>6</v>
-      </c>
-      <c r="AH27" s="8">
-        <v>13</v>
-      </c>
-      <c r="AI27" s="8">
-        <v>9</v>
-      </c>
-      <c r="AJ27" s="8">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="AK27" s="8">
-        <v>7</v>
-      </c>
-      <c r="AL27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.44</v>
-      </c>
-      <c r="AM27" s="8">
-        <f t="shared" si="2"/>
-        <v>0.35</v>
-      </c>
-      <c r="AN27" s="8">
-        <f t="shared" si="3"/>
-        <v>0.39</v>
-      </c>
-      <c r="AO27" s="12">
-        <f>ROUND((AK27+AJ27)/(AK27+AJ27+AI27+AH27),2)</f>
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="9">
-        <v>7</v>
-      </c>
-      <c r="AH28" s="8">
-        <v>3</v>
-      </c>
-      <c r="AI28" s="8">
+    </row>
+    <row r="41" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A41" s="30"/>
+      <c r="B41" s="19">
+        <v>7</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16">
+        <v>2</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
+        <v>17</v>
+      </c>
+      <c r="K41" s="16">
+        <v>1</v>
+      </c>
+      <c r="L41" s="16">
+        <v>0</v>
+      </c>
+      <c r="U41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41" s="25"/>
+      <c r="W41" s="12">
+        <f>AVERAGE(T31:T40)</f>
+        <v>0.59300000000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A42" s="30"/>
+      <c r="B42" s="19">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>4</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>1</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17">
         <v>12</v>
       </c>
-      <c r="AJ28" s="8">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="AK28" s="8">
-        <v>17</v>
-      </c>
-      <c r="AL28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.59</v>
-      </c>
-      <c r="AM28" s="8">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
-      </c>
-      <c r="AN28" s="8">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="AO28" s="12">
-        <f>ROUND((AK28+AJ28)/(AK28+AJ28+AI28+AH28),2)</f>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="9">
-        <v>8</v>
-      </c>
-      <c r="AH29" s="8">
-        <v>8</v>
-      </c>
-      <c r="AI29" s="8">
-        <v>12</v>
-      </c>
-      <c r="AJ29" s="8">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="AK29" s="8">
-        <v>12</v>
-      </c>
-      <c r="AL29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AM29" s="8">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="AN29" s="8">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AO29" s="12">
-        <f>ROUND((AK29+AJ29)/(AK29+AJ29+AI29+AH29),2)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="9">
-        <v>9</v>
-      </c>
-      <c r="AH30" s="8">
-        <v>17</v>
-      </c>
-      <c r="AI30" s="8">
-        <v>24</v>
-      </c>
-      <c r="AJ30" s="8">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="AK30" s="8">
-        <v>3</v>
-      </c>
-      <c r="AL30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.11</v>
-      </c>
-      <c r="AM30" s="8">
-        <f>ROUND(AK30/(AK30+AH30),2)</f>
-        <v>0.15</v>
-      </c>
-      <c r="AN30" s="8">
-        <f>ROUND(2*(AM30*AL30)/(AM30+AL30),2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="AO30" s="12">
-        <f>ROUND((AK30+AJ30)/(AK30+AJ30+AI30+AH30),2)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25"/>
-      <c r="AM31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="17">
-        <f>AVERAGE(AL21:AL30)</f>
-        <v>0.59300000000000008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="AM32" s="10" t="s">
+      <c r="L42" s="16">
+        <v>3</v>
+      </c>
+      <c r="U42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="17">
-        <f>AVERAGE(AM21:AM30)</f>
+      <c r="V42" s="25"/>
+      <c r="W42" s="12">
+        <f>AVERAGE(U31:U40)</f>
         <v>0.55499999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="35">
-        <v>0</v>
-      </c>
-      <c r="D33" s="35">
-        <v>1</v>
-      </c>
-      <c r="E33" s="35">
-        <v>2</v>
-      </c>
-      <c r="F33" s="35">
-        <v>3</v>
-      </c>
-      <c r="G33" s="35">
-        <v>4</v>
-      </c>
-      <c r="H33" s="35">
-        <v>5</v>
-      </c>
-      <c r="I33" s="35">
-        <v>6</v>
-      </c>
-      <c r="J33" s="35">
-        <v>7</v>
-      </c>
-      <c r="K33" s="35">
-        <v>8</v>
-      </c>
-      <c r="L33" s="35">
-        <v>9</v>
-      </c>
-      <c r="AM33" s="10" t="s">
+    <row r="43" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A43" s="31"/>
+      <c r="B43" s="19">
+        <v>9</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16">
+        <v>2</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <v>10</v>
+      </c>
+      <c r="K43" s="16">
+        <v>3</v>
+      </c>
+      <c r="L43" s="17">
+        <v>3</v>
+      </c>
+      <c r="U43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="17">
-        <f>AVERAGE(AN21:AN30)</f>
+      <c r="V43" s="25"/>
+      <c r="W43" s="12">
+        <f>AVERAGE(V31:V40)</f>
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="36">
-        <v>0</v>
-      </c>
-      <c r="C34" s="34">
-        <v>3</v>
-      </c>
-      <c r="D34" s="30">
-        <v>0</v>
-      </c>
-      <c r="E34" s="30">
-        <v>9</v>
-      </c>
-      <c r="F34" s="30">
-        <v>2</v>
-      </c>
-      <c r="G34" s="30">
-        <v>0</v>
-      </c>
-      <c r="H34" s="30">
-        <v>0</v>
-      </c>
-      <c r="I34" s="30">
-        <v>0</v>
-      </c>
-      <c r="J34" s="30">
-        <v>1</v>
-      </c>
-      <c r="K34" s="30">
-        <v>0</v>
-      </c>
-      <c r="L34" s="30">
-        <v>5</v>
-      </c>
-      <c r="AM34" s="10" t="s">
+    <row r="44" spans="1:23" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="U44" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="12">
-        <f>AVERAGE(AO21:AO30)</f>
+      <c r="V44" s="25"/>
+      <c r="W44" s="8">
+        <f>AVERAGE(W31:W40)</f>
         <v>0.91299999999999992</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="20.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="32"/>
-      <c r="B35" s="36">
-        <v>1</v>
-      </c>
-      <c r="C35" s="30">
-        <v>2</v>
-      </c>
-      <c r="D35" s="34">
-        <v>11</v>
-      </c>
-      <c r="E35" s="30">
-        <v>1</v>
-      </c>
-      <c r="F35" s="30">
-        <v>0</v>
-      </c>
-      <c r="G35" s="30">
-        <v>0</v>
-      </c>
-      <c r="H35" s="30">
-        <v>0</v>
-      </c>
-      <c r="I35" s="30">
-        <v>6</v>
-      </c>
-      <c r="J35" s="30">
-        <v>0</v>
-      </c>
-      <c r="K35" s="30">
-        <v>0</v>
-      </c>
-      <c r="L35" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="30">
-        <v>0</v>
-      </c>
-      <c r="D36" s="30">
-        <v>0</v>
-      </c>
-      <c r="E36" s="34">
-        <v>19</v>
-      </c>
-      <c r="F36" s="30">
-        <v>0</v>
-      </c>
-      <c r="G36" s="30">
-        <v>0</v>
-      </c>
-      <c r="H36" s="30">
-        <v>0</v>
-      </c>
-      <c r="I36" s="30">
-        <v>0</v>
-      </c>
-      <c r="J36" s="30">
-        <v>1</v>
-      </c>
-      <c r="K36" s="30">
-        <v>0</v>
-      </c>
-      <c r="L36" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A37" s="32"/>
-      <c r="B37" s="36">
-        <v>3</v>
-      </c>
-      <c r="C37" s="30">
-        <v>0</v>
-      </c>
-      <c r="D37" s="30">
-        <v>0</v>
-      </c>
-      <c r="E37" s="30">
-        <v>1</v>
-      </c>
-      <c r="F37" s="34">
-        <v>14</v>
-      </c>
-      <c r="G37" s="30">
-        <v>1</v>
-      </c>
-      <c r="H37" s="30">
-        <v>0</v>
-      </c>
-      <c r="I37" s="30">
-        <v>0</v>
-      </c>
-      <c r="J37" s="30">
-        <v>0</v>
-      </c>
-      <c r="K37" s="30">
-        <v>1</v>
-      </c>
-      <c r="L37" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A38" s="32"/>
-      <c r="B38" s="36">
-        <v>4</v>
-      </c>
-      <c r="C38" s="30">
-        <v>0</v>
-      </c>
-      <c r="D38" s="30">
-        <v>0</v>
-      </c>
-      <c r="E38" s="30">
-        <v>0</v>
-      </c>
-      <c r="F38" s="30">
-        <v>0</v>
-      </c>
-      <c r="G38" s="34">
-        <v>16</v>
-      </c>
-      <c r="H38" s="30">
-        <v>0</v>
-      </c>
-      <c r="I38" s="30">
-        <v>3</v>
-      </c>
-      <c r="J38" s="30">
-        <v>0</v>
-      </c>
-      <c r="K38" s="30">
-        <v>1</v>
-      </c>
-      <c r="L38" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="36">
-        <v>5</v>
-      </c>
-      <c r="C39" s="30">
-        <v>0</v>
-      </c>
-      <c r="D39" s="30">
-        <v>0</v>
-      </c>
-      <c r="E39" s="30">
-        <v>0</v>
-      </c>
-      <c r="F39" s="30">
-        <v>2</v>
-      </c>
-      <c r="G39" s="30">
-        <v>0</v>
-      </c>
-      <c r="H39" s="34">
-        <v>9</v>
-      </c>
-      <c r="I39" s="30">
-        <v>0</v>
-      </c>
-      <c r="J39" s="30">
-        <v>0</v>
-      </c>
-      <c r="K39" s="30">
-        <v>2</v>
-      </c>
-      <c r="L39" s="30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A40" s="32"/>
-      <c r="B40" s="36">
-        <v>6</v>
-      </c>
-      <c r="C40" s="30">
-        <v>0</v>
-      </c>
-      <c r="D40" s="30">
-        <v>0</v>
-      </c>
-      <c r="E40" s="30">
-        <v>0</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0</v>
-      </c>
-      <c r="G40" s="30">
-        <v>1</v>
-      </c>
-      <c r="H40" s="30">
-        <v>2</v>
-      </c>
-      <c r="I40" s="34">
-        <v>7</v>
-      </c>
-      <c r="J40" s="30">
-        <v>0</v>
-      </c>
-      <c r="K40" s="30">
-        <v>4</v>
-      </c>
-      <c r="L40" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A41" s="32"/>
-      <c r="B41" s="36">
-        <v>7</v>
-      </c>
-      <c r="C41" s="30">
-        <v>0</v>
-      </c>
-      <c r="D41" s="30">
-        <v>0</v>
-      </c>
-      <c r="E41" s="30">
-        <v>2</v>
-      </c>
-      <c r="F41" s="30">
-        <v>0</v>
-      </c>
-      <c r="G41" s="30">
-        <v>0</v>
-      </c>
-      <c r="H41" s="30">
-        <v>0</v>
-      </c>
-      <c r="I41" s="30">
-        <v>0</v>
-      </c>
-      <c r="J41" s="34">
-        <v>17</v>
-      </c>
-      <c r="K41" s="30">
-        <v>1</v>
-      </c>
-      <c r="L41" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A42" s="32"/>
-      <c r="B42" s="36">
-        <v>8</v>
-      </c>
-      <c r="C42" s="30">
-        <v>0</v>
-      </c>
-      <c r="D42" s="30">
-        <v>0</v>
-      </c>
-      <c r="E42" s="30">
-        <v>0</v>
-      </c>
-      <c r="F42" s="30">
-        <v>4</v>
-      </c>
-      <c r="G42" s="30">
-        <v>0</v>
-      </c>
-      <c r="H42" s="30">
-        <v>1</v>
-      </c>
-      <c r="I42" s="30">
-        <v>0</v>
-      </c>
-      <c r="J42" s="30">
-        <v>0</v>
-      </c>
-      <c r="K42" s="34">
-        <v>12</v>
-      </c>
-      <c r="L42" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A43" s="33"/>
-      <c r="B43" s="36">
-        <v>9</v>
-      </c>
-      <c r="C43" s="30">
-        <v>0</v>
-      </c>
-      <c r="D43" s="30">
-        <v>1</v>
-      </c>
-      <c r="E43" s="30">
-        <v>1</v>
-      </c>
-      <c r="F43" s="30">
-        <v>0</v>
-      </c>
-      <c r="G43" s="30">
-        <v>2</v>
-      </c>
-      <c r="H43" s="30">
-        <v>0</v>
-      </c>
-      <c r="I43" s="30">
-        <v>0</v>
-      </c>
-      <c r="J43" s="30">
-        <v>10</v>
-      </c>
-      <c r="K43" s="30">
-        <v>3</v>
-      </c>
-      <c r="L43" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:23" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-    </row>
-    <row r="46" spans="1:41" ht="20.149999999999999" x14ac:dyDescent="0.5">
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+    </row>
+    <row r="46" spans="1:23" ht="20.149999999999999" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
-      <c r="B46" s="14">
-        <v>0</v>
-      </c>
-      <c r="C46" s="14">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14">
-        <v>2</v>
-      </c>
-      <c r="E46" s="14">
-        <v>3</v>
-      </c>
-      <c r="F46" s="14">
+      <c r="B46" s="9">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9">
         <v>4</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="9">
         <v>5</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="9">
         <v>6</v>
       </c>
-      <c r="I46" s="14">
-        <v>7</v>
-      </c>
-      <c r="J46" s="14">
-        <v>8</v>
-      </c>
-      <c r="K46" s="14">
-        <v>9</v>
-      </c>
-      <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="1:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="15">
-        <v>1</v>
-      </c>
-      <c r="B47" s="16">
+      <c r="I46" s="9">
+        <v>7</v>
+      </c>
+      <c r="J46" s="9">
+        <v>8</v>
+      </c>
+      <c r="K46" s="9">
+        <v>9</v>
+      </c>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:23" ht="23.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="10">
+        <v>1</v>
+      </c>
+      <c r="B47" s="11">
         <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="11">
         <v>2</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="11">
         <v>4</v>
       </c>
       <c r="G47" s="1">
@@ -3502,23 +3484,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A48" s="15">
-        <v>2</v>
-      </c>
-      <c r="B48" s="16">
+    <row r="48" spans="1:23" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A48" s="10">
+        <v>2</v>
+      </c>
+      <c r="B48" s="11">
         <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
-      <c r="D48" s="16">
-        <v>2</v>
-      </c>
-      <c r="E48" s="16">
-        <v>3</v>
-      </c>
-      <c r="F48" s="16">
+      <c r="D48" s="11">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11">
+        <v>3</v>
+      </c>
+      <c r="F48" s="11">
         <v>4</v>
       </c>
       <c r="G48" s="1">
@@ -3538,31 +3520,31 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A49" s="15">
-        <v>3</v>
-      </c>
-      <c r="B49" s="16">
-        <v>0</v>
-      </c>
-      <c r="C49" s="16">
-        <v>1</v>
-      </c>
-      <c r="D49" s="16">
-        <v>2</v>
-      </c>
-      <c r="E49" s="16">
-        <v>3</v>
-      </c>
-      <c r="F49" s="16">
+      <c r="A49" s="10">
+        <v>3</v>
+      </c>
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11">
+        <v>2</v>
+      </c>
+      <c r="E49" s="11">
+        <v>3</v>
+      </c>
+      <c r="F49" s="11">
         <v>4</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="11">
         <v>5</v>
       </c>
       <c r="H49" s="1">
         <v>5</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="11">
         <v>7</v>
       </c>
       <c r="J49" s="1">
@@ -3573,31 +3555,31 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A50" s="15">
+      <c r="A50" s="10">
         <v>4</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
       </c>
-      <c r="C50" s="16">
-        <v>1</v>
-      </c>
-      <c r="D50" s="16">
-        <v>2</v>
-      </c>
-      <c r="E50" s="16">
-        <v>3</v>
-      </c>
-      <c r="F50" s="16">
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2</v>
+      </c>
+      <c r="E50" s="11">
+        <v>3</v>
+      </c>
+      <c r="F50" s="11">
         <v>4</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="11">
         <v>5</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="11">
         <v>6</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="11">
         <v>7</v>
       </c>
       <c r="J50" s="1">
@@ -3608,31 +3590,31 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A51" s="15">
+      <c r="A51" s="10">
         <v>5</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
-      <c r="C51" s="16">
-        <v>1</v>
-      </c>
-      <c r="D51" s="16">
-        <v>2</v>
-      </c>
-      <c r="E51" s="16">
-        <v>3</v>
-      </c>
-      <c r="F51" s="16">
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11">
+        <v>2</v>
+      </c>
+      <c r="E51" s="11">
+        <v>3</v>
+      </c>
+      <c r="F51" s="11">
         <v>4</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="11">
         <v>5</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="11">
         <v>6</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="11">
         <v>7</v>
       </c>
       <c r="J51" s="1">
@@ -3643,34 +3625,34 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A52" s="15">
+      <c r="A52" s="10">
         <v>6</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
       </c>
-      <c r="C52" s="16">
-        <v>1</v>
-      </c>
-      <c r="D52" s="16">
-        <v>2</v>
-      </c>
-      <c r="E52" s="16">
-        <v>3</v>
-      </c>
-      <c r="F52" s="16">
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
+        <v>2</v>
+      </c>
+      <c r="E52" s="11">
+        <v>3</v>
+      </c>
+      <c r="F52" s="11">
         <v>4</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="11">
         <v>5</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="11">
         <v>6</v>
       </c>
-      <c r="I52" s="16">
-        <v>7</v>
-      </c>
-      <c r="J52" s="16">
+      <c r="I52" s="11">
+        <v>7</v>
+      </c>
+      <c r="J52" s="11">
         <v>8</v>
       </c>
       <c r="K52" s="1">
@@ -3678,34 +3660,34 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A53" s="15">
+      <c r="A53" s="10">
         <v>7</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C53" s="16">
-        <v>1</v>
-      </c>
-      <c r="D53" s="16">
-        <v>2</v>
-      </c>
-      <c r="E53" s="16">
-        <v>3</v>
-      </c>
-      <c r="F53" s="16">
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2</v>
+      </c>
+      <c r="E53" s="11">
+        <v>3</v>
+      </c>
+      <c r="F53" s="11">
         <v>4</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="11">
         <v>5</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="11">
         <v>6</v>
       </c>
-      <c r="I53" s="16">
-        <v>7</v>
-      </c>
-      <c r="J53" s="16">
+      <c r="I53" s="11">
+        <v>7</v>
+      </c>
+      <c r="J53" s="11">
         <v>8</v>
       </c>
       <c r="K53" s="1">
@@ -3713,34 +3695,34 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A54" s="15">
+      <c r="A54" s="10">
         <v>8</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
       </c>
-      <c r="C54" s="16">
-        <v>1</v>
-      </c>
-      <c r="D54" s="16">
-        <v>2</v>
-      </c>
-      <c r="E54" s="16">
-        <v>3</v>
-      </c>
-      <c r="F54" s="16">
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11">
+        <v>2</v>
+      </c>
+      <c r="E54" s="11">
+        <v>3</v>
+      </c>
+      <c r="F54" s="11">
         <v>4</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="11">
         <v>5</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="11">
         <v>6</v>
       </c>
-      <c r="I54" s="16">
-        <v>7</v>
-      </c>
-      <c r="J54" s="16">
+      <c r="I54" s="11">
+        <v>7</v>
+      </c>
+      <c r="J54" s="11">
         <v>8</v>
       </c>
       <c r="K54" s="1">
@@ -3748,34 +3730,34 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A55" s="15">
+      <c r="A55" s="10">
         <v>9</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
       </c>
-      <c r="C55" s="16">
-        <v>1</v>
-      </c>
-      <c r="D55" s="16">
-        <v>2</v>
-      </c>
-      <c r="E55" s="16">
-        <v>3</v>
-      </c>
-      <c r="F55" s="16">
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11">
+        <v>2</v>
+      </c>
+      <c r="E55" s="11">
+        <v>3</v>
+      </c>
+      <c r="F55" s="11">
         <v>4</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="11">
         <v>5</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="11">
         <v>6</v>
       </c>
-      <c r="I55" s="16">
-        <v>7</v>
-      </c>
-      <c r="J55" s="16">
+      <c r="I55" s="11">
+        <v>7</v>
+      </c>
+      <c r="J55" s="11">
         <v>8</v>
       </c>
       <c r="K55" s="1">
@@ -3783,34 +3765,34 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A56" s="15">
+      <c r="A56" s="10">
         <v>10</v>
       </c>
       <c r="B56" s="1">
         <v>2</v>
       </c>
-      <c r="C56" s="16">
-        <v>1</v>
-      </c>
-      <c r="D56" s="16">
-        <v>2</v>
-      </c>
-      <c r="E56" s="16">
-        <v>3</v>
-      </c>
-      <c r="F56" s="16">
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2</v>
+      </c>
+      <c r="E56" s="11">
+        <v>3</v>
+      </c>
+      <c r="F56" s="11">
         <v>4</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="11">
         <v>5</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="11">
         <v>6</v>
       </c>
-      <c r="I56" s="16">
-        <v>7</v>
-      </c>
-      <c r="J56" s="16">
+      <c r="I56" s="11">
+        <v>7</v>
+      </c>
+      <c r="J56" s="11">
         <v>8</v>
       </c>
       <c r="K56" s="1">
@@ -3818,34 +3800,34 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A57" s="15">
+      <c r="A57" s="10">
         <v>11</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
       </c>
-      <c r="C57" s="16">
-        <v>1</v>
-      </c>
-      <c r="D57" s="16">
-        <v>2</v>
-      </c>
-      <c r="E57" s="16">
-        <v>3</v>
-      </c>
-      <c r="F57" s="16">
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11">
+        <v>2</v>
+      </c>
+      <c r="E57" s="11">
+        <v>3</v>
+      </c>
+      <c r="F57" s="11">
         <v>4</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="11">
         <v>5</v>
       </c>
       <c r="H57" s="1">
         <v>8</v>
       </c>
-      <c r="I57" s="16">
-        <v>7</v>
-      </c>
-      <c r="J57" s="16">
+      <c r="I57" s="11">
+        <v>7</v>
+      </c>
+      <c r="J57" s="11">
         <v>8</v>
       </c>
       <c r="K57" s="1">
@@ -3853,22 +3835,22 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A58" s="15">
+      <c r="A58" s="10">
         <v>12</v>
       </c>
       <c r="B58" s="1">
         <v>2</v>
       </c>
-      <c r="C58" s="16">
-        <v>1</v>
-      </c>
-      <c r="D58" s="16">
-        <v>2</v>
-      </c>
-      <c r="E58" s="16">
-        <v>3</v>
-      </c>
-      <c r="F58" s="16">
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="11">
+        <v>2</v>
+      </c>
+      <c r="E58" s="11">
+        <v>3</v>
+      </c>
+      <c r="F58" s="11">
         <v>4</v>
       </c>
       <c r="G58" s="1">
@@ -3877,10 +3859,10 @@
       <c r="H58" s="1">
         <v>8</v>
       </c>
-      <c r="I58" s="16">
-        <v>7</v>
-      </c>
-      <c r="J58" s="16">
+      <c r="I58" s="11">
+        <v>7</v>
+      </c>
+      <c r="J58" s="11">
         <v>8</v>
       </c>
       <c r="K58" s="1">
@@ -3888,22 +3870,22 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A59" s="15">
+      <c r="A59" s="10">
         <v>13</v>
       </c>
       <c r="B59" s="1">
         <v>3</v>
       </c>
-      <c r="C59" s="16">
-        <v>1</v>
-      </c>
-      <c r="D59" s="16">
-        <v>2</v>
-      </c>
-      <c r="E59" s="16">
-        <v>3</v>
-      </c>
-      <c r="F59" s="16">
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="11">
+        <v>2</v>
+      </c>
+      <c r="E59" s="11">
+        <v>3</v>
+      </c>
+      <c r="F59" s="11">
         <v>4</v>
       </c>
       <c r="G59" s="1">
@@ -3912,10 +3894,10 @@
       <c r="H59" s="1">
         <v>8</v>
       </c>
-      <c r="I59" s="16">
-        <v>7</v>
-      </c>
-      <c r="J59" s="16">
+      <c r="I59" s="11">
+        <v>7</v>
+      </c>
+      <c r="J59" s="11">
         <v>8</v>
       </c>
       <c r="K59" s="1">
@@ -3923,7 +3905,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A60" s="15">
+      <c r="A60" s="10">
         <v>14</v>
       </c>
       <c r="B60" s="1">
@@ -3932,13 +3914,13 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="16">
-        <v>2</v>
-      </c>
-      <c r="E60" s="16">
-        <v>3</v>
-      </c>
-      <c r="F60" s="16">
+      <c r="D60" s="11">
+        <v>2</v>
+      </c>
+      <c r="E60" s="11">
+        <v>3</v>
+      </c>
+      <c r="F60" s="11">
         <v>4</v>
       </c>
       <c r="G60" s="1">
@@ -3947,10 +3929,10 @@
       <c r="H60" s="1">
         <v>8</v>
       </c>
-      <c r="I60" s="16">
-        <v>7</v>
-      </c>
-      <c r="J60" s="16">
+      <c r="I60" s="11">
+        <v>7</v>
+      </c>
+      <c r="J60" s="11">
         <v>8</v>
       </c>
       <c r="K60" s="1">
@@ -3958,7 +3940,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A61" s="15">
+      <c r="A61" s="10">
         <v>15</v>
       </c>
       <c r="B61" s="1">
@@ -3967,13 +3949,13 @@
       <c r="C61" s="1">
         <v>6</v>
       </c>
-      <c r="D61" s="16">
-        <v>2</v>
-      </c>
-      <c r="E61" s="16">
-        <v>3</v>
-      </c>
-      <c r="F61" s="16">
+      <c r="D61" s="11">
+        <v>2</v>
+      </c>
+      <c r="E61" s="11">
+        <v>3</v>
+      </c>
+      <c r="F61" s="11">
         <v>4</v>
       </c>
       <c r="G61" s="1">
@@ -3982,10 +3964,10 @@
       <c r="H61" s="1">
         <v>9</v>
       </c>
-      <c r="I61" s="16">
-        <v>7</v>
-      </c>
-      <c r="J61" s="16">
+      <c r="I61" s="11">
+        <v>7</v>
+      </c>
+      <c r="J61" s="11">
         <v>8</v>
       </c>
       <c r="K61" s="1">
@@ -3993,7 +3975,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A62" s="15">
+      <c r="A62" s="10">
         <v>16</v>
       </c>
       <c r="B62" s="1">
@@ -4002,13 +3984,13 @@
       <c r="C62" s="1">
         <v>6</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="11">
         <v>2</v>
       </c>
       <c r="E62" s="1">
         <v>4</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="11">
         <v>4</v>
       </c>
       <c r="G62" s="1">
@@ -4017,10 +3999,10 @@
       <c r="H62" s="1">
         <v>9</v>
       </c>
-      <c r="I62" s="16">
-        <v>7</v>
-      </c>
-      <c r="J62" s="16">
+      <c r="I62" s="11">
+        <v>7</v>
+      </c>
+      <c r="J62" s="11">
         <v>8</v>
       </c>
       <c r="K62" s="1">
@@ -4028,7 +4010,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A63" s="15">
+      <c r="A63" s="10">
         <v>17</v>
       </c>
       <c r="B63" s="1">
@@ -4037,7 +4019,7 @@
       <c r="C63" s="1">
         <v>6</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="11">
         <v>2</v>
       </c>
       <c r="E63" s="1">
@@ -4052,10 +4034,10 @@
       <c r="H63" s="1">
         <v>9</v>
       </c>
-      <c r="I63" s="16">
-        <v>7</v>
-      </c>
-      <c r="J63" s="16">
+      <c r="I63" s="11">
+        <v>7</v>
+      </c>
+      <c r="J63" s="11">
         <v>8</v>
       </c>
       <c r="K63" s="1">
@@ -4063,7 +4045,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A64" s="15">
+      <c r="A64" s="10">
         <v>18</v>
       </c>
       <c r="B64" s="1">
@@ -4072,7 +4054,7 @@
       <c r="C64" s="1">
         <v>6</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="11">
         <v>2</v>
       </c>
       <c r="E64" s="1">
@@ -4087,18 +4069,18 @@
       <c r="H64" s="1">
         <v>9</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="11">
         <v>7</v>
       </c>
       <c r="J64" s="1">
         <v>9</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A65" s="15">
+      <c r="A65" s="10">
         <v>19</v>
       </c>
       <c r="B65" s="1">
@@ -4107,7 +4089,7 @@
       <c r="C65" s="1">
         <v>6</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="11">
         <v>2</v>
       </c>
       <c r="E65" s="1">
@@ -4122,18 +4104,18 @@
       <c r="H65" s="1">
         <v>9</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="11">
         <v>7</v>
       </c>
       <c r="J65" s="1">
         <v>9</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A66" s="15">
+      <c r="A66" s="10">
         <v>20</v>
       </c>
       <c r="B66" s="1">
@@ -4163,7 +4145,7 @@
       <c r="J66" s="1">
         <v>9</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="11">
         <v>9</v>
       </c>
     </row>
@@ -4172,18 +4154,18 @@
     <sortCondition ref="B46:B66"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="R16:Z17"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AM31:AN31"/>
     <mergeCell ref="C32:L32"/>
     <mergeCell ref="A34:A43"/>
-    <mergeCell ref="AF21:AF30"/>
+    <mergeCell ref="N31:N40"/>
     <mergeCell ref="D45:K45"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="C30:L31"/>
+    <mergeCell ref="R16:Z17"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U41:V41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
